--- a/src/test/resources/TestData/Items and Prices.xlsx
+++ b/src/test/resources/TestData/Items and Prices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="162">
   <si>
     <t>Item Name</t>
   </si>
@@ -474,6 +474,30 @@
   </si>
   <si>
     <t>34,888</t>
+  </si>
+  <si>
+    <t>48,299</t>
+  </si>
+  <si>
+    <t>26,901</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3520 Laptop - 12th Intel Core i5-1235U 10-Cores, 4GB RAM, 256GB SSD, Intel UHD Graphics, 15.6" FHD (1920 x 1080) 120Hz 250 nits Anti-Glare, Ubuntu - Carbon Black</t>
+  </si>
+  <si>
+    <t>21,449</t>
+  </si>
+  <si>
+    <t>20,999</t>
+  </si>
+  <si>
+    <t>16,666</t>
+  </si>
+  <si>
+    <t>26,370</t>
+  </si>
+  <si>
+    <t>13,000</t>
   </si>
 </sst>
 </file>
@@ -518,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2452,6 +2476,86 @@
         <v>110</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
